--- a/RealProject/kids_list.xlsx
+++ b/RealProject/kids_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\projects\Paymenent manager\RealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA051549-0658-4F41-8D45-2EB7D825371D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90666D1E-D9CC-45D8-9B55-3A6BED33FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3685,19 +3685,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="D156" zoomScale="73" workbookViewId="0">
+      <selection activeCell="X162" sqref="X162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.05" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.25" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.75" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.875" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
@@ -3880,7 +3883,7 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="6" t="str">
-        <f>IF(M4=25, "A5", IF(M4&lt;25, "B0", ""))</f>
+        <f t="shared" ref="U4:U67" si="0">IF(OR(M4=25, P4=25), "A5", IF(OR(M4&lt;25, P4&lt;25), "B0", ""))</f>
         <v>A5</v>
       </c>
       <c r="V4" s="10"/>
@@ -3937,7 +3940,7 @@
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="6" t="str">
-        <f t="shared" ref="U5:U68" si="0">IF(M5=25, "A5", IF(M5&lt;25, "B0", ""))</f>
+        <f t="shared" si="0"/>
         <v>A5</v>
       </c>
       <c r="V5" s="10" t="s">
@@ -5029,7 +5032,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="6" t="str">
-        <f>IF(M25=25, "A5", IF(M25&lt;25, "B0", ""))</f>
+        <f t="shared" si="0"/>
         <v>A5</v>
       </c>
       <c r="V25" s="10"/>
@@ -7294,7 +7297,7 @@
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
       <c r="U68" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U68:U131" si="1">IF(OR(M68=25, P68=25), "A5", IF(OR(M68&lt;25, P68&lt;25), "B0", ""))</f>
         <v>A5</v>
       </c>
       <c r="V68" s="10"/>
@@ -7355,7 +7358,7 @@
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
       <c r="U69" s="6" t="str">
-        <f t="shared" ref="U69:U132" si="1">IF(M69=25, "A5", IF(M69&lt;25, "B0", ""))</f>
+        <f t="shared" si="1"/>
         <v>A5</v>
       </c>
       <c r="V69" s="10"/>
@@ -7476,7 +7479,7 @@
       <c r="T71" s="9"/>
       <c r="U71" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V71" s="10"/>
       <c r="W71" s="10"/>
@@ -7893,7 +7896,7 @@
       <c r="T78" s="19"/>
       <c r="U78" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V78" s="10"/>
       <c r="W78" s="10"/>
@@ -8274,7 +8277,7 @@
       <c r="T85" s="9"/>
       <c r="U85" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V85" s="10"/>
       <c r="W85" s="10"/>
@@ -8313,7 +8316,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V86" s="10"/>
       <c r="W86" s="10"/>
@@ -9411,7 +9414,7 @@
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
       <c r="U105" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(M105=25, P105=25), "A5", IF(OR(M105&lt;25, P105&lt;25), "B0", ""))</f>
         <v>B0</v>
       </c>
       <c r="V105" s="10"/>
@@ -10546,7 +10549,7 @@
       <c r="T127" s="9"/>
       <c r="U127" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V127" s="10"/>
       <c r="W127" s="10"/>
@@ -10756,7 +10759,7 @@
       <c r="S132" s="9"/>
       <c r="T132" s="9"/>
       <c r="U132" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U132:U195" si="2">IF(OR(M132=25, P132=25), "A5", IF(OR(M132&lt;25, P132&lt;25), "B0", ""))</f>
         <v>B0</v>
       </c>
       <c r="V132" s="10"/>
@@ -10807,7 +10810,7 @@
       <c r="S133" s="9"/>
       <c r="T133" s="9"/>
       <c r="U133" s="6" t="str">
-        <f t="shared" ref="U133:U196" si="2">IF(M133=25, "A5", IF(M133&lt;25, "B0", ""))</f>
+        <f t="shared" si="2"/>
         <v>B0</v>
       </c>
       <c r="V133" s="10"/>
@@ -10851,7 +10854,7 @@
       <c r="T134" s="9"/>
       <c r="U134" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>B0</v>
       </c>
       <c r="V134" s="10"/>
       <c r="W134" s="10"/>
@@ -10892,7 +10895,7 @@
       <c r="T135" s="9"/>
       <c r="U135" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>B0</v>
       </c>
       <c r="V135" s="10"/>
       <c r="W135" s="10"/>
@@ -10933,7 +10936,7 @@
       <c r="T136" s="9"/>
       <c r="U136" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>B0</v>
       </c>
       <c r="V136" s="10"/>
       <c r="W136" s="10"/>
@@ -14214,8 +14217,8 @@
       <c r="S196" s="22"/>
       <c r="T196" s="22"/>
       <c r="U196" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+        <f t="shared" ref="U196:U259" si="3">IF(OR(M196=25, P196=25), "A5", IF(OR(M196&lt;25, P196&lt;25), "B0", ""))</f>
+        <v>A5</v>
       </c>
       <c r="V196" s="23"/>
       <c r="W196" s="23"/>
@@ -14271,7 +14274,7 @@
       <c r="S197" s="9"/>
       <c r="T197" s="9"/>
       <c r="U197" s="6" t="str">
-        <f t="shared" ref="U197:U260" si="3">IF(M197=25, "A5", IF(M197&lt;25, "B0", ""))</f>
+        <f t="shared" si="3"/>
         <v>B0</v>
       </c>
       <c r="V197" s="10"/>
@@ -15554,7 +15557,7 @@
       <c r="T223" s="9"/>
       <c r="U223" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V223" s="10"/>
       <c r="W223" s="10"/>
@@ -15744,7 +15747,7 @@
       <c r="R227" s="9"/>
       <c r="S227" s="9"/>
       <c r="T227" s="9"/>
-      <c r="U227" s="9" t="str">
+      <c r="U227" s="6" t="str">
         <f t="shared" si="3"/>
         <v>A5</v>
       </c>
@@ -15797,7 +15800,7 @@
       <c r="R228" s="9"/>
       <c r="S228" s="9"/>
       <c r="T228" s="9"/>
-      <c r="U228" s="9" t="str">
+      <c r="U228" s="6" t="str">
         <f t="shared" si="3"/>
         <v>A5</v>
       </c>
@@ -16364,7 +16367,7 @@
       <c r="T241" s="9"/>
       <c r="U241" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V241" s="10"/>
       <c r="W241" s="10"/>
@@ -16403,7 +16406,7 @@
       <c r="T242" s="9"/>
       <c r="U242" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V242" s="10"/>
       <c r="W242" s="10"/>
@@ -16546,7 +16549,7 @@
       <c r="T245" s="9"/>
       <c r="U245" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V245" s="10"/>
       <c r="W245" s="10"/>
@@ -16583,7 +16586,7 @@
       <c r="T246" s="9"/>
       <c r="U246" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>B0</v>
+        <v>A5</v>
       </c>
       <c r="V246" s="10"/>
       <c r="W246" s="10"/>
@@ -17255,8 +17258,8 @@
       <c r="R260" s="25"/>
       <c r="S260" s="25"/>
       <c r="T260" s="25"/>
-      <c r="U260" s="26" t="str">
-        <f t="shared" si="3"/>
+      <c r="U260" s="6" t="str">
+        <f t="shared" ref="U260:U297" si="4">IF(OR(M260=25, P260=25), "A5", IF(OR(M260&lt;25, P260&lt;25), "B0", ""))</f>
         <v>B0</v>
       </c>
       <c r="V260" s="27"/>
@@ -17293,7 +17296,7 @@
       <c r="S261" s="9"/>
       <c r="T261" s="9"/>
       <c r="U261" s="6" t="str">
-        <f t="shared" ref="U261:U302" si="4">IF(M261=25, "A5", IF(M261&lt;25, "B0", ""))</f>
+        <f t="shared" si="4"/>
         <v>B0</v>
       </c>
       <c r="V261" s="10"/>
@@ -18810,7 +18813,7 @@
       <c r="R289" s="25"/>
       <c r="S289" s="25"/>
       <c r="T289" s="25"/>
-      <c r="U289" s="26" t="str">
+      <c r="U289" s="6" t="str">
         <f t="shared" si="4"/>
         <v>A5</v>
       </c>
@@ -18867,7 +18870,7 @@
       <c r="R290" s="25"/>
       <c r="S290" s="25"/>
       <c r="T290" s="25"/>
-      <c r="U290" s="26" t="str">
+      <c r="U290" s="6" t="str">
         <f t="shared" si="4"/>
         <v>A5</v>
       </c>
@@ -19264,7 +19267,7 @@
       <c r="S298" s="9"/>
       <c r="T298" s="9"/>
       <c r="U298" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U298:U301" si="5">IF(OR(M298=25, P298=25), "A5", IF(OR(M298&lt;25, P298&lt;25), "B0", ""))</f>
         <v>B0</v>
       </c>
       <c r="V298" s="10"/>
@@ -19319,7 +19322,7 @@
       <c r="S299" s="9"/>
       <c r="T299" s="9"/>
       <c r="U299" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>B0</v>
       </c>
       <c r="V299" s="10"/>
@@ -19356,7 +19359,7 @@
       <c r="S300" s="9"/>
       <c r="T300" s="9"/>
       <c r="U300" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>B0</v>
       </c>
       <c r="V300" s="10"/>
@@ -19413,7 +19416,7 @@
       <c r="S301" s="9"/>
       <c r="T301" s="9"/>
       <c r="U301" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>A5</v>
       </c>
       <c r="V301" s="10"/>
@@ -19470,7 +19473,7 @@
       <c r="S302" s="9"/>
       <c r="T302" s="9"/>
       <c r="U302" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(M302=25, P302=25), "A5", IF(OR(M302&lt;25, P302&lt;25), "B0", ""))</f>
         <v>A5</v>
       </c>
       <c r="V302" s="10"/>
@@ -19533,35 +19536,35 @@
     <row r="305" spans="1:24" ht="18.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="45"/>
       <c r="D305">
-        <f ca="1">SUM(D4:D313)</f>
+        <f t="shared" ref="D305:K305" ca="1" si="6">SUM(D4:D313)</f>
         <v>3505</v>
       </c>
       <c r="E305">
-        <f ca="1">SUM(E4:E313)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>3635</v>
       </c>
       <c r="F305">
-        <f ca="1">SUM(F4:F313)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4165</v>
       </c>
       <c r="G305">
-        <f ca="1">SUM(G4:G313)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4220</v>
       </c>
       <c r="H305">
-        <f ca="1">SUM(H4:H313)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4600</v>
       </c>
       <c r="I305">
-        <f ca="1">SUM(I4:I313)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4795</v>
       </c>
       <c r="J305">
-        <f ca="1">SUM(J4:J313)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4815</v>
       </c>
       <c r="K305">
-        <f ca="1">SUM(K4:K313)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4905</v>
       </c>
       <c r="L305" s="46"/>

--- a/RealProject/kids_list.xlsx
+++ b/RealProject/kids_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\projects\Paymenent manager\RealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90666D1E-D9CC-45D8-9B55-3A6BED33FE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FC1472-F3D5-4DFB-90F0-9429520E0FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3685,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D156" zoomScale="73" workbookViewId="0">
-      <selection activeCell="X162" sqref="X162"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.05" x14ac:dyDescent="0.35"/>
@@ -3701,7 +3701,7 @@
     <col min="16" max="16" width="3.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.375" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.125" customWidth="1"/>
     <col min="21" max="21" width="12.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.25" bestFit="1" customWidth="1"/>

--- a/RealProject/kids_list.xlsx
+++ b/RealProject/kids_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\projects\Paymenent manager\RealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FC1472-F3D5-4DFB-90F0-9429520E0FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BDD89C-7A16-4E04-ACC9-961B89E12942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="669">
   <si>
     <t>لائـــــــــــــــــــــــــــــــــــــــحـــــــــــــــــــــــــــــــــــة عــــــــــامــــــــــة لسنة 2026-2025</t>
   </si>
@@ -2534,6 +2534,9 @@
   </si>
   <si>
     <t>Ölmez / Oelmez Bedir</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
 </sst>
 </file>
@@ -3685,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.05" x14ac:dyDescent="0.35"/>
@@ -3882,9 +3885,8 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="6" t="str">
-        <f t="shared" ref="U4:U67" si="0">IF(OR(M4=25, P4=25), "A5", IF(OR(M4&lt;25, P4&lt;25), "B0", ""))</f>
-        <v>A5</v>
+      <c r="U4" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
@@ -3939,9 +3941,8 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U5" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V5" s="10" t="s">
         <v>11</v>
@@ -4000,9 +4001,8 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U6" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V6" s="10" t="s">
         <v>11</v>
@@ -4039,9 +4039,8 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U7" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
@@ -4098,9 +4097,8 @@
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U8" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
@@ -4159,9 +4157,8 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U9" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
@@ -4220,9 +4217,8 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U10" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>11</v>
@@ -4285,9 +4281,8 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U11" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V11" s="10" t="s">
         <v>11</v>
@@ -4350,9 +4345,8 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U12" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
@@ -4407,9 +4401,8 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U13" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
@@ -4452,9 +4445,8 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U14" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
@@ -4511,9 +4503,8 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U15" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
@@ -4572,9 +4563,8 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U16" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V16" s="10" t="s">
         <v>11</v>
@@ -4629,9 +4619,8 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U17" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
@@ -4700,9 +4689,8 @@
       <c r="T18" s="8">
         <v>25</v>
       </c>
-      <c r="U18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U18" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V18" s="10" t="s">
         <v>11</v>
@@ -4739,9 +4727,8 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U19" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
@@ -4772,9 +4759,8 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U20" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
@@ -4807,9 +4793,8 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U21" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
@@ -4852,9 +4837,8 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U22" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
@@ -4909,9 +4893,8 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-      <c r="U23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U23" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
@@ -4970,9 +4953,8 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U24" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
@@ -5031,9 +5013,8 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
-      <c r="U25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U25" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
@@ -5092,9 +5073,8 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
-      <c r="U26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U26" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -5149,9 +5129,8 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
-      <c r="U27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U27" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
@@ -5186,9 +5165,8 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
-      <c r="U28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U28" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
@@ -5245,9 +5223,8 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
-      <c r="U29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U29" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -5306,9 +5283,8 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
-      <c r="U30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U30" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
@@ -5367,9 +5343,8 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
-      <c r="U31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U31" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
@@ -5434,9 +5409,8 @@
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
-      <c r="U32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U32" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
@@ -5501,9 +5475,8 @@
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
-      <c r="U33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U33" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
@@ -5562,9 +5535,8 @@
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
-      <c r="U34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U34" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
@@ -5597,9 +5569,8 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
-      <c r="U35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U35" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
@@ -5630,9 +5601,8 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
-      <c r="U36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U36" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
@@ -5689,9 +5659,8 @@
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
-      <c r="U37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U37" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V37" s="10" t="s">
         <v>11</v>
@@ -5754,9 +5723,8 @@
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
-      <c r="U38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U38" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
@@ -5815,9 +5783,8 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
-      <c r="U39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U39" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V39" s="10" t="s">
         <v>11</v>
@@ -5868,9 +5835,8 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U40" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
@@ -5915,9 +5881,8 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
-      <c r="U41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U41" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -5950,9 +5915,8 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
-      <c r="U42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U42" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
@@ -6009,9 +5973,8 @@
       <c r="R43" s="9"/>
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
-      <c r="U43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U43" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
@@ -6062,9 +6025,8 @@
       <c r="R44" s="9"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
-      <c r="U44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U44" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
@@ -6125,9 +6087,8 @@
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
-      <c r="U45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U45" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
@@ -6162,9 +6123,8 @@
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
-      <c r="U46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U46" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
@@ -6211,9 +6171,8 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
-      <c r="U47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U47" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
@@ -6260,9 +6219,8 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
-      <c r="U48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U48" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
@@ -6299,9 +6257,8 @@
       <c r="R49" s="9"/>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
-      <c r="U49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U49" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
@@ -6354,9 +6311,8 @@
       <c r="R50" s="9"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
-      <c r="U50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U50" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
@@ -6415,9 +6371,8 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
-      <c r="U51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U51" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
@@ -6478,9 +6433,8 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
-      <c r="U52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U52" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
@@ -6537,9 +6491,8 @@
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
-      <c r="U53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U53" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
@@ -6596,9 +6549,8 @@
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
-      <c r="U54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U54" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -6657,9 +6609,8 @@
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9"/>
-      <c r="U55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U55" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
@@ -6718,9 +6669,8 @@
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
-      <c r="U56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U56" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
@@ -6779,9 +6729,8 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
-      <c r="U57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U57" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
@@ -6822,9 +6771,8 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
-      <c r="U58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U58" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
@@ -6857,9 +6805,8 @@
       <c r="R59" s="9"/>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
-      <c r="U59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U59" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
@@ -6892,9 +6839,8 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
-      <c r="U60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U60" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
@@ -6927,9 +6873,8 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9"/>
-      <c r="U61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U61" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
@@ -6986,9 +6931,8 @@
       <c r="R62" s="9"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
-      <c r="U62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U62" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V62" s="10" t="s">
         <v>11</v>
@@ -7043,9 +6987,8 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9"/>
-      <c r="U63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U63" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
@@ -7080,9 +7023,8 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
-      <c r="U64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U64" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
@@ -7115,9 +7057,8 @@
       <c r="R65" s="9"/>
       <c r="S65" s="9"/>
       <c r="T65" s="9"/>
-      <c r="U65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>B0</v>
+      <c r="U65" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
@@ -7174,9 +7115,8 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
-      <c r="U66" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U66" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
@@ -7235,9 +7175,8 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9"/>
-      <c r="U67" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>A5</v>
+      <c r="U67" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
@@ -7296,9 +7235,8 @@
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
-      <c r="U68" s="6" t="str">
-        <f t="shared" ref="U68:U131" si="1">IF(OR(M68=25, P68=25), "A5", IF(OR(M68&lt;25, P68&lt;25), "B0", ""))</f>
-        <v>A5</v>
+      <c r="U68" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
@@ -7357,9 +7295,8 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9"/>
-      <c r="U69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U69" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
@@ -7418,9 +7355,8 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
-      <c r="U70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U70" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
@@ -7477,9 +7413,8 @@
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
-      <c r="U71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U71" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V71" s="10"/>
       <c r="W71" s="10"/>
@@ -7530,9 +7465,8 @@
       <c r="R72" s="9"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
-      <c r="U72" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U72" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V72" s="10"/>
       <c r="W72" s="10"/>
@@ -7589,9 +7523,8 @@
       <c r="R73" s="9"/>
       <c r="S73" s="9"/>
       <c r="T73" s="9"/>
-      <c r="U73" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U73" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V73" s="10"/>
       <c r="W73" s="10"/>
@@ -7650,9 +7583,8 @@
       <c r="R74" s="9"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
-      <c r="U74" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U74" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V74" s="10"/>
       <c r="W74" s="10"/>
@@ -7711,9 +7643,8 @@
       <c r="R75" s="9"/>
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
-      <c r="U75" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U75" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V75" s="10"/>
       <c r="W75" s="10"/>
@@ -7772,9 +7703,8 @@
       <c r="R76" s="9"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
-      <c r="U76" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U76" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
@@ -7833,9 +7763,8 @@
       <c r="R77" s="9"/>
       <c r="S77" s="9"/>
       <c r="T77" s="9"/>
-      <c r="U77" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U77" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V77" s="10"/>
       <c r="W77" s="10"/>
@@ -7894,9 +7823,8 @@
       <c r="R78" s="19"/>
       <c r="S78" s="19"/>
       <c r="T78" s="19"/>
-      <c r="U78" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U78" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V78" s="10"/>
       <c r="W78" s="10"/>
@@ -7951,9 +7879,8 @@
       <c r="R79" s="9"/>
       <c r="S79" s="9"/>
       <c r="T79" s="9"/>
-      <c r="U79" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U79" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V79" s="10"/>
       <c r="W79" s="10"/>
@@ -8008,9 +7935,8 @@
       <c r="R80" s="9"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
-      <c r="U80" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U80" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V80" s="10"/>
       <c r="W80" s="10"/>
@@ -8059,9 +7985,8 @@
       <c r="R81" s="9"/>
       <c r="S81" s="9"/>
       <c r="T81" s="9"/>
-      <c r="U81" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U81" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
@@ -8116,9 +8041,8 @@
       <c r="R82" s="9"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
-      <c r="U82" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U82" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V82" s="10"/>
       <c r="W82" s="10"/>
@@ -8173,9 +8097,8 @@
       <c r="R83" s="9"/>
       <c r="S83" s="9"/>
       <c r="T83" s="9"/>
-      <c r="U83" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U83" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V83" s="10"/>
       <c r="W83" s="10"/>
@@ -8234,9 +8157,8 @@
       <c r="R84" s="9"/>
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
-      <c r="U84" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U84" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V84" s="10"/>
       <c r="W84" s="10"/>
@@ -8275,9 +8197,8 @@
       </c>
       <c r="S85" s="9"/>
       <c r="T85" s="9"/>
-      <c r="U85" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U85" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V85" s="10"/>
       <c r="W85" s="10"/>
@@ -8314,9 +8235,8 @@
       </c>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
-      <c r="U86" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U86" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V86" s="10"/>
       <c r="W86" s="10"/>
@@ -8365,9 +8285,8 @@
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
-      <c r="U87" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U87" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V87" s="10"/>
       <c r="W87" s="10"/>
@@ -8418,9 +8337,8 @@
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
-      <c r="U88" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U88" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
@@ -8479,9 +8397,8 @@
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
-      <c r="U89" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U89" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V89" s="10"/>
       <c r="W89" s="10"/>
@@ -8540,9 +8457,8 @@
       <c r="R90" s="9"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
-      <c r="U90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U90" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V90" s="10" t="s">
         <v>11</v>
@@ -8605,9 +8521,8 @@
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
-      <c r="U91" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U91" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V91" s="10" t="s">
         <v>11</v>
@@ -8672,9 +8587,8 @@
       <c r="R92" s="9"/>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
-      <c r="U92" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U92" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V92" s="10"/>
       <c r="W92" s="10"/>
@@ -8735,9 +8649,8 @@
       <c r="R93" s="9"/>
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
-      <c r="U93" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U93" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V93" s="10"/>
       <c r="W93" s="10"/>
@@ -8796,9 +8709,8 @@
       <c r="R94" s="9"/>
       <c r="S94" s="9"/>
       <c r="T94" s="9"/>
-      <c r="U94" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U94" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V94" s="10"/>
       <c r="W94" s="10"/>
@@ -8857,9 +8769,8 @@
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
-      <c r="U95" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U95" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V95" s="10"/>
       <c r="W95" s="10"/>
@@ -8918,9 +8829,8 @@
       <c r="R96" s="9"/>
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
-      <c r="U96" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U96" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V96" s="10"/>
       <c r="W96" s="10"/>
@@ -8979,9 +8889,8 @@
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
-      <c r="U97" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U97" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V97" s="10" t="s">
         <v>11</v>
@@ -9044,9 +8953,8 @@
       <c r="R98" s="9"/>
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
-      <c r="U98" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U98" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V98" s="10" t="s">
         <v>11</v>
@@ -9083,9 +8991,8 @@
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
-      <c r="U99" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U99" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V99" s="10"/>
       <c r="W99" s="10"/>
@@ -9118,9 +9025,8 @@
       <c r="R100" s="9"/>
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
-      <c r="U100" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U100" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V100" s="10"/>
       <c r="W100" s="10"/>
@@ -9173,9 +9079,8 @@
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
       <c r="T101" s="9"/>
-      <c r="U101" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U101" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V101" s="10"/>
       <c r="W101" s="10"/>
@@ -9222,9 +9127,8 @@
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
-      <c r="U102" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U102" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V102" s="10"/>
       <c r="W102" s="10"/>
@@ -9283,9 +9187,8 @@
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
       <c r="T103" s="9"/>
-      <c r="U103" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U103" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V103" s="10" t="s">
         <v>11</v>
@@ -9348,9 +9251,8 @@
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
-      <c r="U104" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U104" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V104" s="10" t="s">
         <v>11</v>
@@ -9413,9 +9315,8 @@
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
       <c r="T105" s="9"/>
-      <c r="U105" s="6" t="str">
-        <f>IF(OR(M105=25, P105=25), "A5", IF(OR(M105&lt;25, P105&lt;25), "B0", ""))</f>
-        <v>B0</v>
+      <c r="U105" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V105" s="10"/>
       <c r="W105" s="10"/>
@@ -9472,9 +9373,8 @@
       <c r="R106" s="9"/>
       <c r="S106" s="9"/>
       <c r="T106" s="9"/>
-      <c r="U106" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U106" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V106" s="10"/>
       <c r="W106" s="10"/>
@@ -9533,9 +9433,8 @@
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
       <c r="T107" s="9"/>
-      <c r="U107" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U107" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V107" s="10"/>
       <c r="W107" s="10"/>
@@ -9594,9 +9493,8 @@
       <c r="R108" s="9"/>
       <c r="S108" s="9"/>
       <c r="T108" s="9"/>
-      <c r="U108" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U108" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V108" s="10" t="s">
         <v>11</v>
@@ -9659,9 +9557,8 @@
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
       <c r="T109" s="9"/>
-      <c r="U109" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U109" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V109" s="10" t="s">
         <v>11</v>
@@ -9698,9 +9595,8 @@
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
       <c r="T110" s="9"/>
-      <c r="U110" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U110" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V110" s="10"/>
       <c r="W110" s="10"/>
@@ -9733,9 +9629,8 @@
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
       <c r="T111" s="9"/>
-      <c r="U111" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U111" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V111" s="10"/>
       <c r="W111" s="10"/>
@@ -9766,9 +9661,8 @@
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
       <c r="T112" s="9"/>
-      <c r="U112" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U112" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V112" s="10"/>
       <c r="W112" s="10"/>
@@ -9825,9 +9719,8 @@
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
       <c r="T113" s="9"/>
-      <c r="U113" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U113" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V113" s="10"/>
       <c r="W113" s="10"/>
@@ -9890,9 +9783,8 @@
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
       <c r="T114" s="9"/>
-      <c r="U114" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U114" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V114" s="10"/>
       <c r="W114" s="10"/>
@@ -9955,9 +9847,8 @@
       <c r="R115" s="9"/>
       <c r="S115" s="9"/>
       <c r="T115" s="9"/>
-      <c r="U115" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U115" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V115" s="10"/>
       <c r="W115" s="10"/>
@@ -9992,9 +9883,8 @@
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
       <c r="T116" s="9"/>
-      <c r="U116" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U116" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V116" s="10"/>
       <c r="W116" s="10"/>
@@ -10027,9 +9917,8 @@
       <c r="R117" s="9"/>
       <c r="S117" s="9"/>
       <c r="T117" s="9"/>
-      <c r="U117" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U117" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V117" s="10"/>
       <c r="W117" s="10"/>
@@ -10086,9 +9975,8 @@
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
       <c r="T118" s="9"/>
-      <c r="U118" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U118" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V118" s="10"/>
       <c r="W118" s="10"/>
@@ -10123,9 +10011,8 @@
       <c r="R119" s="9"/>
       <c r="S119" s="9"/>
       <c r="T119" s="9"/>
-      <c r="U119" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U119" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V119" s="10"/>
       <c r="W119" s="10"/>
@@ -10182,9 +10069,8 @@
       <c r="R120" s="9"/>
       <c r="S120" s="9"/>
       <c r="T120" s="9"/>
-      <c r="U120" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U120" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V120" s="10"/>
       <c r="W120" s="10"/>
@@ -10247,9 +10133,8 @@
       <c r="R121" s="9"/>
       <c r="S121" s="9"/>
       <c r="T121" s="9"/>
-      <c r="U121" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U121" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V121" s="10"/>
       <c r="W121" s="9"/>
@@ -10312,9 +10197,8 @@
       <c r="R122" s="9"/>
       <c r="S122" s="9"/>
       <c r="T122" s="9"/>
-      <c r="U122" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U122" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V122" s="10"/>
       <c r="W122" s="9"/>
@@ -10349,9 +10233,8 @@
       <c r="R123" s="9"/>
       <c r="S123" s="9"/>
       <c r="T123" s="9"/>
-      <c r="U123" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U123" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V123" s="10"/>
       <c r="W123" s="10"/>
@@ -10384,9 +10267,8 @@
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
       <c r="T124" s="9"/>
-      <c r="U124" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>B0</v>
+      <c r="U124" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V124" s="10"/>
       <c r="W124" s="10"/>
@@ -10445,9 +10327,8 @@
       <c r="R125" s="9"/>
       <c r="S125" s="9"/>
       <c r="T125" s="9"/>
-      <c r="U125" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U125" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V125" s="10"/>
       <c r="W125" s="10"/>
@@ -10506,9 +10387,8 @@
       <c r="R126" s="9"/>
       <c r="S126" s="9"/>
       <c r="T126" s="9"/>
-      <c r="U126" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U126" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V126" s="10"/>
       <c r="W126" s="10"/>
@@ -10547,9 +10427,8 @@
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
       <c r="T127" s="9"/>
-      <c r="U127" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U127" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V127" s="10"/>
       <c r="W127" s="10"/>
@@ -10596,9 +10475,8 @@
       </c>
       <c r="S128" s="9"/>
       <c r="T128" s="9"/>
-      <c r="U128" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U128" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V128" s="10"/>
       <c r="W128" s="10"/>
@@ -10639,9 +10517,8 @@
       <c r="R129" s="9"/>
       <c r="S129" s="9"/>
       <c r="T129" s="9"/>
-      <c r="U129" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U129" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V129" s="10"/>
       <c r="W129" s="10"/>
@@ -10682,9 +10559,8 @@
       <c r="R130" s="9"/>
       <c r="S130" s="9"/>
       <c r="T130" s="9"/>
-      <c r="U130" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U130" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V130" s="10"/>
       <c r="W130" s="10"/>
@@ -10725,9 +10601,8 @@
       <c r="R131" s="9"/>
       <c r="S131" s="9"/>
       <c r="T131" s="9"/>
-      <c r="U131" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>A5</v>
+      <c r="U131" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V131" s="10"/>
       <c r="W131" s="10"/>
@@ -10758,9 +10633,8 @@
       <c r="R132" s="9"/>
       <c r="S132" s="9"/>
       <c r="T132" s="9"/>
-      <c r="U132" s="6" t="str">
-        <f t="shared" ref="U132:U195" si="2">IF(OR(M132=25, P132=25), "A5", IF(OR(M132&lt;25, P132&lt;25), "B0", ""))</f>
-        <v>B0</v>
+      <c r="U132" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V132" s="10"/>
       <c r="W132" s="10"/>
@@ -10809,9 +10683,8 @@
       <c r="R133" s="9"/>
       <c r="S133" s="9"/>
       <c r="T133" s="9"/>
-      <c r="U133" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U133" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V133" s="10"/>
       <c r="W133" s="10"/>
@@ -10852,9 +10725,8 @@
       <c r="R134" s="9"/>
       <c r="S134" s="9"/>
       <c r="T134" s="9"/>
-      <c r="U134" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U134" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V134" s="10"/>
       <c r="W134" s="10"/>
@@ -10893,9 +10765,8 @@
       <c r="R135" s="9"/>
       <c r="S135" s="9"/>
       <c r="T135" s="9"/>
-      <c r="U135" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U135" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V135" s="10"/>
       <c r="W135" s="10"/>
@@ -10934,9 +10805,8 @@
       <c r="R136" s="9"/>
       <c r="S136" s="9"/>
       <c r="T136" s="9"/>
-      <c r="U136" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U136" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V136" s="10"/>
       <c r="W136" s="10"/>
@@ -10995,9 +10865,8 @@
       <c r="R137" s="9"/>
       <c r="S137" s="9"/>
       <c r="T137" s="9"/>
-      <c r="U137" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U137" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V137" s="10"/>
       <c r="W137" s="10"/>
@@ -11058,9 +10927,8 @@
       <c r="R138" s="9"/>
       <c r="S138" s="9"/>
       <c r="T138" s="9"/>
-      <c r="U138" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U138" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V138" s="10"/>
       <c r="W138" s="10"/>
@@ -11119,9 +10987,8 @@
       <c r="R139" s="9"/>
       <c r="S139" s="9"/>
       <c r="T139" s="9"/>
-      <c r="U139" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U139" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V139" s="10"/>
       <c r="W139" s="10"/>
@@ -11180,9 +11047,8 @@
       <c r="R140" s="9"/>
       <c r="S140" s="9"/>
       <c r="T140" s="9"/>
-      <c r="U140" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U140" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V140" s="10"/>
       <c r="W140" s="10"/>
@@ -11233,9 +11099,8 @@
       <c r="R141" s="9"/>
       <c r="S141" s="9"/>
       <c r="T141" s="9"/>
-      <c r="U141" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U141" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V141" s="10"/>
       <c r="W141" s="10"/>
@@ -11286,9 +11151,8 @@
       <c r="R142" s="9"/>
       <c r="S142" s="9"/>
       <c r="T142" s="9"/>
-      <c r="U142" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U142" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V142" s="10"/>
       <c r="W142" s="10"/>
@@ -11339,9 +11203,8 @@
       <c r="R143" s="9"/>
       <c r="S143" s="9"/>
       <c r="T143" s="9"/>
-      <c r="U143" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U143" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V143" s="10"/>
       <c r="W143" s="10"/>
@@ -11402,9 +11265,8 @@
       <c r="R144" s="9"/>
       <c r="S144" s="9"/>
       <c r="T144" s="9"/>
-      <c r="U144" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U144" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V144" s="10"/>
       <c r="W144" s="10"/>
@@ -11465,9 +11327,8 @@
       <c r="R145" s="9"/>
       <c r="S145" s="9"/>
       <c r="T145" s="9"/>
-      <c r="U145" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U145" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V145" s="10"/>
       <c r="W145" s="10"/>
@@ -11526,9 +11387,8 @@
       <c r="R146" s="9"/>
       <c r="S146" s="9"/>
       <c r="T146" s="9"/>
-      <c r="U146" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U146" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V146" s="10"/>
       <c r="W146" s="10"/>
@@ -11587,9 +11447,8 @@
       <c r="R147" s="9"/>
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
-      <c r="U147" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U147" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V147" s="10"/>
       <c r="W147" s="10"/>
@@ -11640,9 +11499,8 @@
       <c r="R148" s="9"/>
       <c r="S148" s="9"/>
       <c r="T148" s="9"/>
-      <c r="U148" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U148" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V148" s="10"/>
       <c r="W148" s="10"/>
@@ -11693,9 +11551,8 @@
       <c r="R149" s="9"/>
       <c r="S149" s="9"/>
       <c r="T149" s="9"/>
-      <c r="U149" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U149" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V149" s="10"/>
       <c r="W149" s="10"/>
@@ -11746,9 +11603,8 @@
       <c r="R150" s="9"/>
       <c r="S150" s="9"/>
       <c r="T150" s="9"/>
-      <c r="U150" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U150" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V150" s="10"/>
       <c r="W150" s="10"/>
@@ -11807,9 +11663,8 @@
       <c r="R151" s="9"/>
       <c r="S151" s="9"/>
       <c r="T151" s="9"/>
-      <c r="U151" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U151" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V151" s="10"/>
       <c r="W151" s="10"/>
@@ -11842,9 +11697,8 @@
       <c r="R152" s="9"/>
       <c r="S152" s="9"/>
       <c r="T152" s="9"/>
-      <c r="U152" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U152" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V152" s="10"/>
       <c r="W152" s="10"/>
@@ -11887,9 +11741,8 @@
       <c r="R153" s="9"/>
       <c r="S153" s="9"/>
       <c r="T153" s="9"/>
-      <c r="U153" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U153" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V153" s="10"/>
       <c r="W153" s="10"/>
@@ -11920,9 +11773,8 @@
       <c r="R154" s="9"/>
       <c r="S154" s="9"/>
       <c r="T154" s="9"/>
-      <c r="U154" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U154" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V154" s="10"/>
       <c r="W154" s="10"/>
@@ -11979,9 +11831,8 @@
       <c r="R155" s="9"/>
       <c r="S155" s="9"/>
       <c r="T155" s="9"/>
-      <c r="U155" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U155" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V155" s="10"/>
       <c r="W155" s="10"/>
@@ -12040,9 +11891,8 @@
       <c r="R156" s="9"/>
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
-      <c r="U156" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U156" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V156" s="10"/>
       <c r="W156" s="10"/>
@@ -12101,9 +11951,8 @@
       <c r="R157" s="9"/>
       <c r="S157" s="9"/>
       <c r="T157" s="9"/>
-      <c r="U157" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U157" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V157" s="10"/>
       <c r="W157" s="10"/>
@@ -12136,9 +11985,8 @@
       <c r="R158" s="9"/>
       <c r="S158" s="9"/>
       <c r="T158" s="9"/>
-      <c r="U158" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U158" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V158" s="10"/>
       <c r="W158" s="10"/>
@@ -12195,9 +12043,8 @@
       <c r="R159" s="9"/>
       <c r="S159" s="9"/>
       <c r="T159" s="9"/>
-      <c r="U159" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U159" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V159" s="10"/>
       <c r="W159" s="10"/>
@@ -12256,9 +12103,8 @@
       <c r="R160" s="9"/>
       <c r="S160" s="9"/>
       <c r="T160" s="9"/>
-      <c r="U160" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U160" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V160" s="10"/>
       <c r="W160" s="10"/>
@@ -12309,9 +12155,8 @@
       <c r="R161" s="9"/>
       <c r="S161" s="9"/>
       <c r="T161" s="9"/>
-      <c r="U161" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U161" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V161" s="10"/>
       <c r="W161" s="10"/>
@@ -12362,9 +12207,8 @@
       <c r="R162" s="9"/>
       <c r="S162" s="9"/>
       <c r="T162" s="9"/>
-      <c r="U162" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U162" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V162" s="10"/>
       <c r="W162" s="10"/>
@@ -12425,9 +12269,8 @@
       <c r="R163" s="9"/>
       <c r="S163" s="9"/>
       <c r="T163" s="9"/>
-      <c r="U163" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U163" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V163" s="10"/>
       <c r="W163" s="10"/>
@@ -12460,9 +12303,8 @@
       <c r="R164" s="9"/>
       <c r="S164" s="9"/>
       <c r="T164" s="9"/>
-      <c r="U164" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U164" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V164" s="10"/>
       <c r="W164" s="10"/>
@@ -12521,9 +12363,8 @@
       <c r="R165" s="9"/>
       <c r="S165" s="9"/>
       <c r="T165" s="9"/>
-      <c r="U165" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U165" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V165" s="10"/>
       <c r="W165" s="10"/>
@@ -12582,9 +12423,8 @@
       <c r="R166" s="9"/>
       <c r="S166" s="9"/>
       <c r="T166" s="9"/>
-      <c r="U166" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U166" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V166" s="10" t="s">
         <v>11</v>
@@ -12647,9 +12487,8 @@
       <c r="R167" s="9"/>
       <c r="S167" s="9"/>
       <c r="T167" s="9"/>
-      <c r="U167" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U167" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V167" s="10" t="s">
         <v>11</v>
@@ -12686,9 +12525,8 @@
       <c r="R168" s="9"/>
       <c r="S168" s="9"/>
       <c r="T168" s="9"/>
-      <c r="U168" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U168" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V168" s="10"/>
       <c r="W168" s="10"/>
@@ -12719,9 +12557,8 @@
       <c r="R169" s="9"/>
       <c r="S169" s="9"/>
       <c r="T169" s="9"/>
-      <c r="U169" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U169" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V169" s="10"/>
       <c r="W169" s="10"/>
@@ -12776,9 +12613,8 @@
       <c r="R170" s="9"/>
       <c r="S170" s="9"/>
       <c r="T170" s="9"/>
-      <c r="U170" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U170" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V170" s="10"/>
       <c r="W170" s="10"/>
@@ -12821,9 +12657,8 @@
       <c r="R171" s="9"/>
       <c r="S171" s="9"/>
       <c r="T171" s="9"/>
-      <c r="U171" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U171" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V171" s="10"/>
       <c r="W171" s="10"/>
@@ -12882,9 +12717,8 @@
       <c r="R172" s="9"/>
       <c r="S172" s="9"/>
       <c r="T172" s="9"/>
-      <c r="U172" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U172" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V172" s="10"/>
       <c r="W172" s="10"/>
@@ -12943,9 +12777,8 @@
       <c r="R173" s="9"/>
       <c r="S173" s="9"/>
       <c r="T173" s="9"/>
-      <c r="U173" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U173" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V173" s="10"/>
       <c r="W173" s="10"/>
@@ -13002,9 +12835,8 @@
       <c r="R174" s="9"/>
       <c r="S174" s="9"/>
       <c r="T174" s="9"/>
-      <c r="U174" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U174" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V174" s="10" t="s">
         <v>11</v>
@@ -13065,9 +12897,8 @@
       <c r="R175" s="9"/>
       <c r="S175" s="9"/>
       <c r="T175" s="9"/>
-      <c r="U175" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U175" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V175" s="10" t="s">
         <v>11</v>
@@ -13132,9 +12963,8 @@
       <c r="R176" s="9"/>
       <c r="S176" s="9"/>
       <c r="T176" s="9"/>
-      <c r="U176" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U176" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V176" s="10"/>
       <c r="W176" s="10"/>
@@ -13195,9 +13025,8 @@
       <c r="R177" s="9"/>
       <c r="S177" s="9"/>
       <c r="T177" s="9"/>
-      <c r="U177" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U177" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V177" s="10"/>
       <c r="W177" s="10"/>
@@ -13258,9 +13087,8 @@
       <c r="R178" s="9"/>
       <c r="S178" s="9"/>
       <c r="T178" s="9"/>
-      <c r="U178" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U178" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V178" s="10"/>
       <c r="W178" s="10"/>
@@ -13293,9 +13121,8 @@
       <c r="R179" s="9"/>
       <c r="S179" s="9"/>
       <c r="T179" s="9"/>
-      <c r="U179" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U179" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V179" s="10"/>
       <c r="W179" s="10"/>
@@ -13350,9 +13177,8 @@
       <c r="R180" s="9"/>
       <c r="S180" s="9"/>
       <c r="T180" s="9"/>
-      <c r="U180" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U180" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V180" s="10"/>
       <c r="W180" s="10"/>
@@ -13409,9 +13235,8 @@
       <c r="R181" s="9"/>
       <c r="S181" s="9"/>
       <c r="T181" s="9"/>
-      <c r="U181" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U181" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V181" s="10"/>
       <c r="W181" s="10"/>
@@ -13444,9 +13269,8 @@
       <c r="R182" s="9"/>
       <c r="S182" s="9"/>
       <c r="T182" s="9"/>
-      <c r="U182" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U182" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V182" s="10"/>
       <c r="W182" s="10"/>
@@ -13477,9 +13301,8 @@
       <c r="R183" s="9"/>
       <c r="S183" s="9"/>
       <c r="T183" s="9"/>
-      <c r="U183" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U183" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V183" s="10"/>
       <c r="W183" s="10"/>
@@ -13510,9 +13333,8 @@
       <c r="R184" s="9"/>
       <c r="S184" s="9"/>
       <c r="T184" s="9"/>
-      <c r="U184" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U184" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V184" s="10"/>
       <c r="W184" s="10"/>
@@ -13569,9 +13391,8 @@
       <c r="R185" s="9"/>
       <c r="S185" s="9"/>
       <c r="T185" s="9"/>
-      <c r="U185" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U185" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V185" s="10"/>
       <c r="W185" s="10"/>
@@ -13626,9 +13447,8 @@
       <c r="R186" s="9"/>
       <c r="S186" s="9"/>
       <c r="T186" s="9"/>
-      <c r="U186" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U186" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V186" s="10"/>
       <c r="W186" s="10"/>
@@ -13661,9 +13481,8 @@
       <c r="R187" s="9"/>
       <c r="S187" s="9"/>
       <c r="T187" s="9"/>
-      <c r="U187" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>B0</v>
+      <c r="U187" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V187" s="10"/>
       <c r="W187" s="10"/>
@@ -13720,9 +13539,8 @@
       <c r="R188" s="9"/>
       <c r="S188" s="9"/>
       <c r="T188" s="9"/>
-      <c r="U188" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U188" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V188" s="10" t="s">
         <v>11</v>
@@ -13781,9 +13599,8 @@
       <c r="R189" s="9"/>
       <c r="S189" s="9"/>
       <c r="T189" s="9"/>
-      <c r="U189" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U189" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V189" s="10"/>
       <c r="W189" s="10"/>
@@ -13842,9 +13659,8 @@
       <c r="R190" s="9"/>
       <c r="S190" s="9"/>
       <c r="T190" s="9"/>
-      <c r="U190" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U190" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V190" s="10"/>
       <c r="W190" s="10"/>
@@ -13903,9 +13719,8 @@
       <c r="R191" s="9"/>
       <c r="S191" s="9"/>
       <c r="T191" s="9"/>
-      <c r="U191" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U191" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V191" s="10"/>
       <c r="W191" s="10"/>
@@ -13964,9 +13779,8 @@
       <c r="R192" s="9"/>
       <c r="S192" s="9"/>
       <c r="T192" s="9"/>
-      <c r="U192" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U192" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V192" s="10"/>
       <c r="W192" s="10"/>
@@ -14025,9 +13839,8 @@
       <c r="R193" s="9"/>
       <c r="S193" s="9"/>
       <c r="T193" s="9"/>
-      <c r="U193" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U193" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V193" s="10"/>
       <c r="W193" s="10"/>
@@ -14086,9 +13899,8 @@
       <c r="R194" s="9"/>
       <c r="S194" s="9"/>
       <c r="T194" s="9"/>
-      <c r="U194" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U194" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V194" s="10" t="s">
         <v>11</v>
@@ -14151,9 +13963,8 @@
       <c r="R195" s="9"/>
       <c r="S195" s="9"/>
       <c r="T195" s="9"/>
-      <c r="U195" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>A5</v>
+      <c r="U195" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V195" s="10" t="s">
         <v>11</v>
@@ -14216,9 +14027,8 @@
       <c r="R196" s="22"/>
       <c r="S196" s="22"/>
       <c r="T196" s="22"/>
-      <c r="U196" s="6" t="str">
-        <f t="shared" ref="U196:U259" si="3">IF(OR(M196=25, P196=25), "A5", IF(OR(M196&lt;25, P196&lt;25), "B0", ""))</f>
-        <v>A5</v>
+      <c r="U196" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V196" s="23"/>
       <c r="W196" s="23"/>
@@ -14273,9 +14083,8 @@
       <c r="R197" s="9"/>
       <c r="S197" s="9"/>
       <c r="T197" s="9"/>
-      <c r="U197" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U197" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V197" s="10"/>
       <c r="W197" s="10"/>
@@ -14322,9 +14131,8 @@
       <c r="R198" s="9"/>
       <c r="S198" s="9"/>
       <c r="T198" s="9"/>
-      <c r="U198" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U198" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V198" s="10"/>
       <c r="W198" s="10"/>
@@ -14371,9 +14179,8 @@
       <c r="R199" s="9"/>
       <c r="S199" s="9"/>
       <c r="T199" s="9"/>
-      <c r="U199" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U199" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V199" s="10"/>
       <c r="W199" s="10"/>
@@ -14406,9 +14213,8 @@
       <c r="R200" s="9"/>
       <c r="S200" s="9"/>
       <c r="T200" s="9"/>
-      <c r="U200" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U200" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V200" s="10"/>
       <c r="W200" s="10"/>
@@ -14439,9 +14245,8 @@
       <c r="R201" s="9"/>
       <c r="S201" s="9"/>
       <c r="T201" s="9"/>
-      <c r="U201" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U201" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V201" s="10"/>
       <c r="W201" s="10"/>
@@ -14472,9 +14277,8 @@
       <c r="R202" s="9"/>
       <c r="S202" s="9"/>
       <c r="T202" s="9"/>
-      <c r="U202" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U202" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V202" s="10"/>
       <c r="W202" s="10"/>
@@ -14531,9 +14335,8 @@
       <c r="R203" s="9"/>
       <c r="S203" s="9"/>
       <c r="T203" s="9"/>
-      <c r="U203" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U203" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V203" s="10"/>
       <c r="W203" s="10"/>
@@ -14592,9 +14395,8 @@
       <c r="R204" s="9"/>
       <c r="S204" s="9"/>
       <c r="T204" s="9"/>
-      <c r="U204" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U204" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V204" s="10" t="s">
         <v>11</v>
@@ -14631,9 +14433,8 @@
       <c r="R205" s="9"/>
       <c r="S205" s="9"/>
       <c r="T205" s="9"/>
-      <c r="U205" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U205" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V205" s="10"/>
       <c r="W205" s="10"/>
@@ -14664,9 +14465,8 @@
       <c r="R206" s="9"/>
       <c r="S206" s="9"/>
       <c r="T206" s="9"/>
-      <c r="U206" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U206" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V206" s="10"/>
       <c r="W206" s="10"/>
@@ -14707,9 +14507,8 @@
       <c r="R207" s="9"/>
       <c r="S207" s="9"/>
       <c r="T207" s="9"/>
-      <c r="U207" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U207" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V207" s="10"/>
       <c r="W207" s="10"/>
@@ -14752,9 +14551,8 @@
       <c r="R208" s="9"/>
       <c r="S208" s="9"/>
       <c r="T208" s="9"/>
-      <c r="U208" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U208" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V208" s="10"/>
       <c r="W208" s="10"/>
@@ -14787,9 +14585,8 @@
       <c r="R209" s="9"/>
       <c r="S209" s="9"/>
       <c r="T209" s="9"/>
-      <c r="U209" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U209" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V209" s="10"/>
       <c r="W209" s="10"/>
@@ -14848,9 +14645,8 @@
       <c r="R210" s="9"/>
       <c r="S210" s="9"/>
       <c r="T210" s="9"/>
-      <c r="U210" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U210" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V210" s="10"/>
       <c r="W210" s="10"/>
@@ -14905,9 +14701,8 @@
       <c r="R211" s="9"/>
       <c r="S211" s="9"/>
       <c r="T211" s="9"/>
-      <c r="U211" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U211" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V211" s="10"/>
       <c r="W211" s="10"/>
@@ -14968,9 +14763,8 @@
       <c r="R212" s="9"/>
       <c r="S212" s="9"/>
       <c r="T212" s="9"/>
-      <c r="U212" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U212" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V212" s="10"/>
       <c r="W212" s="10"/>
@@ -15021,9 +14815,8 @@
       <c r="R213" s="9"/>
       <c r="S213" s="9"/>
       <c r="T213" s="9"/>
-      <c r="U213" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U213" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V213" s="10"/>
       <c r="W213" s="10"/>
@@ -15074,9 +14867,8 @@
       <c r="R214" s="9"/>
       <c r="S214" s="9"/>
       <c r="T214" s="9"/>
-      <c r="U214" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U214" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V214" s="10"/>
       <c r="W214" s="10"/>
@@ -15127,9 +14919,8 @@
       <c r="R215" s="9"/>
       <c r="S215" s="9"/>
       <c r="T215" s="9"/>
-      <c r="U215" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U215" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V215" s="10"/>
       <c r="W215" s="10"/>
@@ -15172,9 +14963,8 @@
       <c r="R216" s="9"/>
       <c r="S216" s="9"/>
       <c r="T216" s="9"/>
-      <c r="U216" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U216" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V216" s="10"/>
       <c r="W216" s="10"/>
@@ -15223,9 +15013,8 @@
       <c r="R217" s="9"/>
       <c r="S217" s="9"/>
       <c r="T217" s="9"/>
-      <c r="U217" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U217" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V217" s="10"/>
       <c r="W217" s="10"/>
@@ -15268,9 +15057,8 @@
       <c r="R218" s="9"/>
       <c r="S218" s="9"/>
       <c r="T218" s="9"/>
-      <c r="U218" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U218" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V218" s="10"/>
       <c r="W218" s="10"/>
@@ -15311,9 +15099,8 @@
       <c r="R219" s="9"/>
       <c r="S219" s="9"/>
       <c r="T219" s="9"/>
-      <c r="U219" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U219" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V219" s="10"/>
       <c r="W219" s="10"/>
@@ -15370,9 +15157,8 @@
       <c r="R220" s="9"/>
       <c r="S220" s="9"/>
       <c r="T220" s="9"/>
-      <c r="U220" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U220" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V220" s="10"/>
       <c r="W220" s="10"/>
@@ -15431,9 +15217,8 @@
       <c r="R221" s="9"/>
       <c r="S221" s="9"/>
       <c r="T221" s="9"/>
-      <c r="U221" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U221" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V221" s="10"/>
       <c r="W221" s="10"/>
@@ -15492,9 +15277,8 @@
       <c r="R222" s="9"/>
       <c r="S222" s="9"/>
       <c r="T222" s="9"/>
-      <c r="U222" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U222" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V222" s="10"/>
       <c r="W222" s="10"/>
@@ -15555,9 +15339,8 @@
       <c r="R223" s="9"/>
       <c r="S223" s="9"/>
       <c r="T223" s="9"/>
-      <c r="U223" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U223" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V223" s="10"/>
       <c r="W223" s="10"/>
@@ -15616,9 +15399,8 @@
       <c r="R224" s="9"/>
       <c r="S224" s="9"/>
       <c r="T224" s="9"/>
-      <c r="U224" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U224" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V224" s="10" t="s">
         <v>11</v>
@@ -15659,9 +15441,8 @@
       <c r="R225" s="9"/>
       <c r="S225" s="9"/>
       <c r="T225" s="9"/>
-      <c r="U225" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U225" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V225" s="10"/>
       <c r="W225" s="10"/>
@@ -15696,9 +15477,8 @@
       <c r="R226" s="9"/>
       <c r="S226" s="9"/>
       <c r="T226" s="9"/>
-      <c r="U226" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U226" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V226" s="10"/>
       <c r="W226" s="10"/>
@@ -15747,9 +15527,8 @@
       <c r="R227" s="9"/>
       <c r="S227" s="9"/>
       <c r="T227" s="9"/>
-      <c r="U227" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U227" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V227" s="24"/>
       <c r="W227" s="23"/>
@@ -15800,9 +15579,8 @@
       <c r="R228" s="9"/>
       <c r="S228" s="9"/>
       <c r="T228" s="9"/>
-      <c r="U228" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U228" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V228" s="24"/>
       <c r="W228" s="23"/>
@@ -15855,9 +15633,8 @@
       <c r="R229" s="9"/>
       <c r="S229" s="9"/>
       <c r="T229" s="9"/>
-      <c r="U229" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U229" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V229" s="10"/>
       <c r="W229" s="10"/>
@@ -15916,9 +15693,8 @@
       <c r="R230" s="9"/>
       <c r="S230" s="9"/>
       <c r="T230" s="9"/>
-      <c r="U230" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U230" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V230" s="10"/>
       <c r="W230" s="10"/>
@@ -15975,9 +15751,8 @@
       <c r="R231" s="9"/>
       <c r="S231" s="9"/>
       <c r="T231" s="9"/>
-      <c r="U231" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U231" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V231" s="10"/>
       <c r="W231" s="10"/>
@@ -16020,9 +15795,8 @@
       <c r="R232" s="9"/>
       <c r="S232" s="9"/>
       <c r="T232" s="9"/>
-      <c r="U232" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U232" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V232" s="10"/>
       <c r="W232" s="10"/>
@@ -16055,9 +15829,8 @@
       <c r="R233" s="9"/>
       <c r="S233" s="9"/>
       <c r="T233" s="9"/>
-      <c r="U233" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U233" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V233" s="10"/>
       <c r="W233" s="10"/>
@@ -16108,9 +15881,8 @@
       <c r="R234" s="9"/>
       <c r="S234" s="9"/>
       <c r="T234" s="9"/>
-      <c r="U234" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U234" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V234" s="10"/>
       <c r="W234" s="10"/>
@@ -16143,9 +15915,8 @@
       <c r="R235" s="9"/>
       <c r="S235" s="9"/>
       <c r="T235" s="9"/>
-      <c r="U235" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U235" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V235" s="10"/>
       <c r="W235" s="10"/>
@@ -16190,9 +15961,8 @@
       <c r="R236" s="9"/>
       <c r="S236" s="9"/>
       <c r="T236" s="9"/>
-      <c r="U236" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U236" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V236" s="10"/>
       <c r="W236" s="10"/>
@@ -16223,9 +15993,8 @@
       <c r="R237" s="9"/>
       <c r="S237" s="9"/>
       <c r="T237" s="9"/>
-      <c r="U237" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U237" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V237" s="10"/>
       <c r="W237" s="10"/>
@@ -16258,9 +16027,8 @@
       <c r="R238" s="9"/>
       <c r="S238" s="9"/>
       <c r="T238" s="9"/>
-      <c r="U238" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U238" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V238" s="10"/>
       <c r="W238" s="10"/>
@@ -16293,9 +16061,8 @@
       <c r="R239" s="9"/>
       <c r="S239" s="9"/>
       <c r="T239" s="9"/>
-      <c r="U239" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U239" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V239" s="10"/>
       <c r="W239" s="10"/>
@@ -16328,9 +16095,8 @@
       <c r="R240" s="9"/>
       <c r="S240" s="9"/>
       <c r="T240" s="9"/>
-      <c r="U240" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U240" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V240" s="10"/>
       <c r="W240" s="10"/>
@@ -16365,9 +16131,8 @@
       <c r="R241" s="9"/>
       <c r="S241" s="9"/>
       <c r="T241" s="9"/>
-      <c r="U241" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U241" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V241" s="10"/>
       <c r="W241" s="10"/>
@@ -16404,9 +16169,8 @@
       <c r="R242" s="9"/>
       <c r="S242" s="9"/>
       <c r="T242" s="9"/>
-      <c r="U242" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U242" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V242" s="10"/>
       <c r="W242" s="10"/>
@@ -16455,9 +16219,8 @@
       <c r="R243" s="9"/>
       <c r="S243" s="9"/>
       <c r="T243" s="9"/>
-      <c r="U243" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U243" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V243" s="10"/>
       <c r="W243" s="10"/>
@@ -16508,9 +16271,8 @@
       <c r="R244" s="9"/>
       <c r="S244" s="9"/>
       <c r="T244" s="9"/>
-      <c r="U244" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U244" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V244" s="10"/>
       <c r="W244" s="10"/>
@@ -16547,9 +16309,8 @@
       <c r="R245" s="9"/>
       <c r="S245" s="9"/>
       <c r="T245" s="9"/>
-      <c r="U245" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U245" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V245" s="10"/>
       <c r="W245" s="10"/>
@@ -16584,9 +16345,8 @@
       <c r="R246" s="9"/>
       <c r="S246" s="9"/>
       <c r="T246" s="9"/>
-      <c r="U246" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U246" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V246" s="10"/>
       <c r="W246" s="10"/>
@@ -16643,9 +16403,8 @@
       <c r="R247" s="9"/>
       <c r="S247" s="9"/>
       <c r="T247" s="9"/>
-      <c r="U247" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U247" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V247" s="10"/>
       <c r="W247" s="10"/>
@@ -16678,9 +16437,8 @@
       <c r="R248" s="9"/>
       <c r="S248" s="9"/>
       <c r="T248" s="9"/>
-      <c r="U248" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U248" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V248" s="10"/>
       <c r="W248" s="10"/>
@@ -16711,9 +16469,8 @@
       <c r="R249" s="9"/>
       <c r="S249" s="9"/>
       <c r="T249" s="9"/>
-      <c r="U249" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U249" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V249" s="10"/>
       <c r="W249" s="10"/>
@@ -16770,9 +16527,8 @@
       <c r="R250" s="9"/>
       <c r="S250" s="9"/>
       <c r="T250" s="9"/>
-      <c r="U250" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U250" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V250" s="10"/>
       <c r="W250" s="10"/>
@@ -16831,9 +16587,8 @@
       <c r="R251" s="9"/>
       <c r="S251" s="9"/>
       <c r="T251" s="9"/>
-      <c r="U251" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U251" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V251" s="10"/>
       <c r="W251" s="10"/>
@@ -16892,9 +16647,8 @@
       <c r="R252" s="9"/>
       <c r="S252" s="9"/>
       <c r="T252" s="9"/>
-      <c r="U252" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U252" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V252" s="10"/>
       <c r="W252" s="10"/>
@@ -16949,9 +16703,8 @@
       <c r="R253" s="9"/>
       <c r="S253" s="9"/>
       <c r="T253" s="9"/>
-      <c r="U253" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U253" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V253" s="10"/>
       <c r="W253" s="10"/>
@@ -16984,9 +16737,8 @@
       <c r="R254" s="9"/>
       <c r="S254" s="9"/>
       <c r="T254" s="9"/>
-      <c r="U254" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U254" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V254" s="10"/>
       <c r="W254" s="10"/>
@@ -17039,9 +16791,8 @@
       <c r="R255" s="9"/>
       <c r="S255" s="9"/>
       <c r="T255" s="9"/>
-      <c r="U255" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U255" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V255" s="10"/>
       <c r="W255" s="10"/>
@@ -17096,9 +16847,8 @@
       <c r="R256" s="9"/>
       <c r="S256" s="9"/>
       <c r="T256" s="9"/>
-      <c r="U256" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U256" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V256" s="10"/>
       <c r="W256" s="10"/>
@@ -17131,9 +16881,8 @@
       <c r="R257" s="9"/>
       <c r="S257" s="9"/>
       <c r="T257" s="9"/>
-      <c r="U257" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U257" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V257" s="10"/>
       <c r="W257" s="10"/>
@@ -17164,9 +16913,8 @@
       <c r="R258" s="9"/>
       <c r="S258" s="9"/>
       <c r="T258" s="9"/>
-      <c r="U258" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>B0</v>
+      <c r="U258" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V258" s="10"/>
       <c r="W258" s="10"/>
@@ -17209,9 +16957,8 @@
       <c r="R259" s="9"/>
       <c r="S259" s="9"/>
       <c r="T259" s="9"/>
-      <c r="U259" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>A5</v>
+      <c r="U259" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V259" s="10"/>
       <c r="W259" s="10"/>
@@ -17258,9 +17005,8 @@
       <c r="R260" s="25"/>
       <c r="S260" s="25"/>
       <c r="T260" s="25"/>
-      <c r="U260" s="6" t="str">
-        <f t="shared" ref="U260:U297" si="4">IF(OR(M260=25, P260=25), "A5", IF(OR(M260&lt;25, P260&lt;25), "B0", ""))</f>
-        <v>B0</v>
+      <c r="U260" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V260" s="27"/>
       <c r="W260" s="27"/>
@@ -17295,9 +17041,8 @@
       <c r="R261" s="9"/>
       <c r="S261" s="9"/>
       <c r="T261" s="9"/>
-      <c r="U261" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U261" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V261" s="10"/>
       <c r="W261" s="10"/>
@@ -17330,9 +17075,8 @@
       <c r="R262" s="9"/>
       <c r="S262" s="9"/>
       <c r="T262" s="9"/>
-      <c r="U262" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U262" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V262" s="10"/>
       <c r="W262" s="10"/>
@@ -17389,9 +17133,8 @@
       <c r="R263" s="9"/>
       <c r="S263" s="9"/>
       <c r="T263" s="9"/>
-      <c r="U263" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U263" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V263" s="10" t="s">
         <v>11</v>
@@ -17440,9 +17183,8 @@
       <c r="R264" s="9"/>
       <c r="S264" s="9"/>
       <c r="T264" s="9"/>
-      <c r="U264" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U264" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V264" s="10"/>
       <c r="W264" s="10"/>
@@ -17475,9 +17217,8 @@
       <c r="R265" s="9"/>
       <c r="S265" s="9"/>
       <c r="T265" s="9"/>
-      <c r="U265" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U265" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V265" s="10"/>
       <c r="W265" s="10"/>
@@ -17534,9 +17275,8 @@
       <c r="R266" s="9"/>
       <c r="S266" s="9"/>
       <c r="T266" s="9"/>
-      <c r="U266" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U266" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V266" s="10"/>
       <c r="W266" s="10"/>
@@ -17595,9 +17335,8 @@
       <c r="R267" s="9"/>
       <c r="S267" s="9"/>
       <c r="T267" s="9"/>
-      <c r="U267" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U267" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V267" s="10"/>
       <c r="W267" s="10"/>
@@ -17658,9 +17397,8 @@
       <c r="R268" s="9"/>
       <c r="S268" s="9"/>
       <c r="T268" s="9"/>
-      <c r="U268" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U268" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V268" s="10"/>
       <c r="W268" s="10"/>
@@ -17721,9 +17459,8 @@
       <c r="R269" s="9"/>
       <c r="S269" s="9"/>
       <c r="T269" s="9"/>
-      <c r="U269" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U269" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V269" s="10"/>
       <c r="W269" s="10"/>
@@ -17784,9 +17521,8 @@
       <c r="R270" s="9"/>
       <c r="S270" s="9"/>
       <c r="T270" s="9"/>
-      <c r="U270" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U270" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V270" s="10"/>
       <c r="W270" s="10"/>
@@ -17847,9 +17583,8 @@
       <c r="R271" s="9"/>
       <c r="S271" s="9"/>
       <c r="T271" s="9"/>
-      <c r="U271" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U271" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V271" s="10"/>
       <c r="W271" s="10"/>
@@ -17910,9 +17645,8 @@
       <c r="R272" s="9"/>
       <c r="S272" s="9"/>
       <c r="T272" s="9"/>
-      <c r="U272" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U272" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V272" s="10"/>
       <c r="W272" s="10"/>
@@ -17971,9 +17705,8 @@
       <c r="R273" s="9"/>
       <c r="S273" s="9"/>
       <c r="T273" s="9"/>
-      <c r="U273" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U273" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V273" s="10"/>
       <c r="W273" s="10"/>
@@ -18006,9 +17739,8 @@
       <c r="R274" s="9"/>
       <c r="S274" s="9"/>
       <c r="T274" s="9"/>
-      <c r="U274" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U274" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V274" s="10"/>
       <c r="W274" s="10"/>
@@ -18067,9 +17799,8 @@
       <c r="R275" s="9"/>
       <c r="S275" s="9"/>
       <c r="T275" s="9"/>
-      <c r="U275" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U275" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V275" s="10"/>
       <c r="W275" s="10"/>
@@ -18102,9 +17833,8 @@
       <c r="R276" s="9"/>
       <c r="S276" s="9"/>
       <c r="T276" s="9"/>
-      <c r="U276" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U276" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V276" s="10"/>
       <c r="W276" s="10"/>
@@ -18135,9 +17865,8 @@
       <c r="R277" s="9"/>
       <c r="S277" s="9"/>
       <c r="T277" s="9"/>
-      <c r="U277" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U277" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V277" s="10"/>
       <c r="W277" s="10"/>
@@ -18194,9 +17923,8 @@
       <c r="R278" s="9"/>
       <c r="S278" s="9"/>
       <c r="T278" s="9"/>
-      <c r="U278" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U278" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V278" s="10"/>
       <c r="W278" s="10"/>
@@ -18251,9 +17979,8 @@
       <c r="R279" s="9"/>
       <c r="S279" s="9"/>
       <c r="T279" s="9"/>
-      <c r="U279" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U279" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V279" s="10"/>
       <c r="W279" s="10"/>
@@ -18312,9 +18039,8 @@
       <c r="R280" s="9"/>
       <c r="S280" s="9"/>
       <c r="T280" s="9"/>
-      <c r="U280" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U280" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V280" s="10"/>
       <c r="W280" s="10"/>
@@ -18373,9 +18099,8 @@
       <c r="R281" s="9"/>
       <c r="S281" s="9"/>
       <c r="T281" s="9"/>
-      <c r="U281" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U281" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V281" s="10"/>
       <c r="W281" s="10"/>
@@ -18434,9 +18159,8 @@
       <c r="R282" s="9"/>
       <c r="S282" s="9"/>
       <c r="T282" s="9"/>
-      <c r="U282" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U282" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V282" s="10"/>
       <c r="W282" s="10"/>
@@ -18491,9 +18215,8 @@
       <c r="R283" s="9"/>
       <c r="S283" s="9"/>
       <c r="T283" s="9"/>
-      <c r="U283" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U283" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V283" s="10"/>
       <c r="W283" s="10"/>
@@ -18526,9 +18249,8 @@
       <c r="R284" s="9"/>
       <c r="S284" s="9"/>
       <c r="T284" s="9"/>
-      <c r="U284" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U284" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V284" s="10"/>
       <c r="W284" s="10"/>
@@ -18585,9 +18307,8 @@
       <c r="R285" s="9"/>
       <c r="S285" s="9"/>
       <c r="T285" s="9"/>
-      <c r="U285" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U285" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V285" s="10"/>
       <c r="W285" s="10"/>
@@ -18642,9 +18363,8 @@
       <c r="R286" s="9"/>
       <c r="S286" s="9"/>
       <c r="T286" s="9"/>
-      <c r="U286" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U286" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V286" s="10"/>
       <c r="W286" s="10"/>
@@ -18695,9 +18415,8 @@
       <c r="R287" s="9"/>
       <c r="S287" s="9"/>
       <c r="T287" s="9"/>
-      <c r="U287" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U287" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V287" s="10"/>
       <c r="W287" s="10"/>
@@ -18756,9 +18475,8 @@
       <c r="R288" s="9"/>
       <c r="S288" s="9"/>
       <c r="T288" s="9"/>
-      <c r="U288" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U288" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V288" s="10"/>
       <c r="W288" s="10"/>
@@ -18813,9 +18531,8 @@
       <c r="R289" s="25"/>
       <c r="S289" s="25"/>
       <c r="T289" s="25"/>
-      <c r="U289" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U289" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V289" s="10"/>
       <c r="W289" s="27"/>
@@ -18870,9 +18587,8 @@
       <c r="R290" s="25"/>
       <c r="S290" s="25"/>
       <c r="T290" s="25"/>
-      <c r="U290" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U290" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V290" s="10"/>
       <c r="W290" s="27"/>
@@ -18905,9 +18621,8 @@
       <c r="R291" s="9"/>
       <c r="S291" s="9"/>
       <c r="T291" s="9"/>
-      <c r="U291" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U291" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V291" s="10"/>
       <c r="W291" s="10"/>
@@ -18964,9 +18679,8 @@
       <c r="R292" s="9"/>
       <c r="S292" s="9"/>
       <c r="T292" s="9"/>
-      <c r="U292" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U292" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V292" s="10"/>
       <c r="W292" s="10"/>
@@ -19007,9 +18721,8 @@
       <c r="R293" s="9"/>
       <c r="S293" s="9"/>
       <c r="T293" s="9"/>
-      <c r="U293" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U293" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V293" s="10"/>
       <c r="W293" s="10"/>
@@ -19046,9 +18759,8 @@
       <c r="R294" s="9"/>
       <c r="S294" s="9"/>
       <c r="T294" s="9"/>
-      <c r="U294" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>B0</v>
+      <c r="U294" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V294" s="10"/>
       <c r="W294" s="10"/>
@@ -19107,9 +18819,8 @@
       <c r="R295" s="9"/>
       <c r="S295" s="9"/>
       <c r="T295" s="9"/>
-      <c r="U295" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U295" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V295" s="10"/>
       <c r="W295" s="10"/>
@@ -19152,9 +18863,8 @@
       <c r="R296" s="9"/>
       <c r="S296" s="9"/>
       <c r="T296" s="9"/>
-      <c r="U296" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U296" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V296" s="10"/>
       <c r="W296" s="10"/>
@@ -19211,9 +18921,8 @@
       <c r="R297" s="9"/>
       <c r="S297" s="9"/>
       <c r="T297" s="9"/>
-      <c r="U297" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>A5</v>
+      <c r="U297" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V297" s="10"/>
       <c r="W297" s="10"/>
@@ -19266,9 +18975,8 @@
       <c r="R298" s="9"/>
       <c r="S298" s="9"/>
       <c r="T298" s="9"/>
-      <c r="U298" s="6" t="str">
-        <f t="shared" ref="U298:U301" si="5">IF(OR(M298=25, P298=25), "A5", IF(OR(M298&lt;25, P298&lt;25), "B0", ""))</f>
-        <v>B0</v>
+      <c r="U298" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V298" s="10"/>
       <c r="W298" s="10"/>
@@ -19321,9 +19029,8 @@
       <c r="R299" s="9"/>
       <c r="S299" s="9"/>
       <c r="T299" s="9"/>
-      <c r="U299" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>B0</v>
+      <c r="U299" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V299" s="10"/>
       <c r="W299" s="10"/>
@@ -19358,9 +19065,8 @@
       <c r="R300" s="9"/>
       <c r="S300" s="9"/>
       <c r="T300" s="9"/>
-      <c r="U300" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>B0</v>
+      <c r="U300" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V300" s="10"/>
       <c r="W300" s="10"/>
@@ -19415,9 +19121,8 @@
       <c r="R301" s="9"/>
       <c r="S301" s="9"/>
       <c r="T301" s="9"/>
-      <c r="U301" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>A5</v>
+      <c r="U301" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V301" s="10"/>
       <c r="W301" s="10"/>
@@ -19472,9 +19177,8 @@
       <c r="R302" s="9"/>
       <c r="S302" s="9"/>
       <c r="T302" s="9"/>
-      <c r="U302" s="6" t="str">
-        <f>IF(OR(M302=25, P302=25), "A5", IF(OR(M302&lt;25, P302&lt;25), "B0", ""))</f>
-        <v>A5</v>
+      <c r="U302" s="6" t="s">
+        <v>668</v>
       </c>
       <c r="V302" s="10"/>
       <c r="W302" s="10"/>
@@ -19536,35 +19240,35 @@
     <row r="305" spans="1:24" ht="18.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C305" s="45"/>
       <c r="D305">
-        <f t="shared" ref="D305:K305" ca="1" si="6">SUM(D4:D313)</f>
+        <f t="shared" ref="D305:K305" ca="1" si="0">SUM(D4:D313)</f>
         <v>3505</v>
       </c>
       <c r="E305">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v>3635</v>
       </c>
       <c r="F305">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4165</v>
       </c>
       <c r="G305">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4220</v>
       </c>
       <c r="H305">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4600</v>
       </c>
       <c r="I305">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4795</v>
       </c>
       <c r="J305">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4815</v>
       </c>
       <c r="K305">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v>4905</v>
       </c>
       <c r="L305" s="46"/>
